--- a/team_specific_matrix/Eastern Wash._A.xlsx
+++ b/team_specific_matrix/Eastern Wash._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1365461847389558</v>
+        <v>0.1551155115511551</v>
       </c>
       <c r="C2">
-        <v>0.6706827309236948</v>
+        <v>0.6336633663366337</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02008032128514056</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1044176706827309</v>
+        <v>0.1155115511551155</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06827309236947791</v>
+        <v>0.07590759075907591</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005747126436781609</v>
+        <v>0.005</v>
       </c>
       <c r="C3">
-        <v>0.02873563218390805</v>
+        <v>0.03</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01724137931034483</v>
+        <v>0.02</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7816091954022989</v>
+        <v>0.765</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2777777777777778</v>
+        <v>0.2558139534883721</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.08846153846153847</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009523809523809525</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09047619047619047</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2285714285714286</v>
+        <v>0.2269230769230769</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04761904761904762</v>
+        <v>0.04230769230769231</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1619047619047619</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="R6">
-        <v>0.05714285714285714</v>
+        <v>0.05</v>
       </c>
       <c r="S6">
-        <v>0.3047619047619048</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0958904109589041</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00684931506849315</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07534246575342465</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1712328767123288</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03424657534246575</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1643835616438356</v>
+        <v>0.1736842105263158</v>
       </c>
       <c r="R7">
-        <v>0.08904109589041095</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.363013698630137</v>
+        <v>0.3526315789473684</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1114551083591331</v>
+        <v>0.1026252983293556</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03405572755417956</v>
+        <v>0.02863961813842482</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06501547987616099</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06191950464396285</v>
+        <v>0.06443914081145585</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03405572755417956</v>
+        <v>0.03818615751789976</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1981424148606811</v>
+        <v>0.1885441527446301</v>
       </c>
       <c r="R8">
-        <v>0.1176470588235294</v>
+        <v>0.1097852028639618</v>
       </c>
       <c r="S8">
-        <v>0.3777089783281734</v>
+        <v>0.3890214797136038</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09090909090909091</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01136363636363636</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1136363636363636</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07954545454545454</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01704545454545454</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1875</v>
+        <v>0.1674418604651163</v>
       </c>
       <c r="R9">
-        <v>0.1306818181818182</v>
+        <v>0.1209302325581395</v>
       </c>
       <c r="S9">
-        <v>0.3693181818181818</v>
+        <v>0.386046511627907</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.122650840751731</v>
+        <v>0.116107931316435</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02274975272007913</v>
+        <v>0.02289452166802943</v>
       </c>
       <c r="E10">
-        <v>0.001978239366963402</v>
+        <v>0.001635322976287817</v>
       </c>
       <c r="F10">
-        <v>0.0712166172106825</v>
+        <v>0.07031888798037612</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1048466864490603</v>
+        <v>0.1013900245298446</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02670623145400593</v>
+        <v>0.02780049059689289</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2156280909990109</v>
+        <v>0.2150449713818479</v>
       </c>
       <c r="R10">
-        <v>0.1078140454995054</v>
+        <v>0.1046606704824203</v>
       </c>
       <c r="S10">
-        <v>0.3264094955489614</v>
+        <v>0.3401471790678659</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1491525423728814</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07589285714285714</v>
+        <v>0.0711864406779661</v>
       </c>
       <c r="K11">
-        <v>0.21875</v>
+        <v>0.2271186440677966</v>
       </c>
       <c r="L11">
-        <v>0.5491071428571429</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01339285714285714</v>
+        <v>0.01016949152542373</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7716535433070866</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1889763779527559</v>
+        <v>0.1941176470588235</v>
       </c>
       <c r="K12">
-        <v>0.007874015748031496</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="L12">
-        <v>0.03149606299212598</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7307692307692307</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1923076923076923</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07692307692307693</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02777777777777778</v>
+        <v>0.02573529411764706</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1388888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="I15">
-        <v>0.04166666666666666</v>
+        <v>0.04779411764705882</v>
       </c>
       <c r="J15">
-        <v>0.3518518518518519</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="K15">
-        <v>0.08333333333333333</v>
+        <v>0.08455882352941177</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06944444444444445</v>
+        <v>0.06985294117647059</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.287037037037037</v>
+        <v>0.3014705882352941</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01685393258426966</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1629213483146068</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="I16">
-        <v>0.06741573033707865</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="J16">
-        <v>0.4606741573033708</v>
+        <v>0.4326923076923077</v>
       </c>
       <c r="K16">
-        <v>0.101123595505618</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01685393258426966</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06179775280898876</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1123595505617977</v>
+        <v>0.1201923076923077</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02144772117962467</v>
+        <v>0.01995565410199556</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1313672922252011</v>
+        <v>0.1596452328159645</v>
       </c>
       <c r="I17">
-        <v>0.1313672922252011</v>
+        <v>0.130820399113082</v>
       </c>
       <c r="J17">
-        <v>0.4396782841823056</v>
+        <v>0.4212860310421286</v>
       </c>
       <c r="K17">
-        <v>0.08847184986595175</v>
+        <v>0.08869179600886919</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01340482573726542</v>
+        <v>0.01330376940133038</v>
       </c>
       <c r="N17">
-        <v>0.002680965147453083</v>
+        <v>0.002217294900221729</v>
       </c>
       <c r="O17">
-        <v>0.05361930294906166</v>
+        <v>0.05321507760532151</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1179624664879357</v>
+        <v>0.1108647450110865</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03092783505154639</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1649484536082474</v>
+        <v>0.1645021645021645</v>
       </c>
       <c r="I18">
-        <v>0.07216494845360824</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="J18">
-        <v>0.3917525773195876</v>
+        <v>0.3982683982683983</v>
       </c>
       <c r="K18">
-        <v>0.08247422680412371</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02061855670103093</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09278350515463918</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1443298969072165</v>
+        <v>0.1471861471861472</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02238805970149254</v>
+        <v>0.02274641954507161</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2014925373134328</v>
+        <v>0.2080876158382477</v>
       </c>
       <c r="I19">
-        <v>0.09594882729211088</v>
+        <v>0.09014321819713564</v>
       </c>
       <c r="J19">
-        <v>0.3805970149253731</v>
+        <v>0.3723673125526538</v>
       </c>
       <c r="K19">
-        <v>0.09275053304904052</v>
+        <v>0.1002527379949452</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01492537313432836</v>
+        <v>0.01853411962931761</v>
       </c>
       <c r="N19">
-        <v>0.001066098081023454</v>
+        <v>0.0008424599831508003</v>
       </c>
       <c r="O19">
-        <v>0.08315565031982942</v>
+        <v>0.08508845829823083</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1076759061833689</v>
+        <v>0.1019376579612468</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Eastern Wash._A.xlsx
+++ b/team_specific_matrix/Eastern Wash._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1551155115511551</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="C2">
-        <v>0.6336633663366337</v>
+        <v>0.6460176991150443</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0198019801980198</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1155115511551155</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07590759075907591</v>
+        <v>0.07079646017699115</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="C3">
-        <v>0.03</v>
+        <v>0.03879310344827586</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.765</v>
+        <v>0.771551724137931</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.18</v>
+        <v>0.1681034482758621</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09302325581395349</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6511627906976745</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2558139534883721</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08846153846153847</v>
+        <v>0.09215017064846416</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007692307692307693</v>
+        <v>0.01023890784982935</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09615384615384616</v>
+        <v>0.09215017064846416</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2269230769230769</v>
+        <v>0.2116040955631399</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04230769230769231</v>
+        <v>0.0409556313993174</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1615384615384615</v>
+        <v>0.174061433447099</v>
       </c>
       <c r="R6">
-        <v>0.05</v>
+        <v>0.05460750853242321</v>
       </c>
       <c r="S6">
-        <v>0.3269230769230769</v>
+        <v>0.3242320819112628</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1052631578947368</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005263157894736842</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07894736842105263</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1526315789473684</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03157894736842105</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1736842105263158</v>
+        <v>0.1761904761904762</v>
       </c>
       <c r="R7">
         <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.3526315789473684</v>
+        <v>0.3619047619047619</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1026252983293556</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02863961813842482</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07875894988066826</v>
+        <v>0.07872340425531915</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06443914081145585</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03818615751789976</v>
+        <v>0.03617021276595744</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1885441527446301</v>
+        <v>0.1872340425531915</v>
       </c>
       <c r="R8">
-        <v>0.1097852028639618</v>
+        <v>0.1127659574468085</v>
       </c>
       <c r="S8">
-        <v>0.3890214797136038</v>
+        <v>0.3808510638297872</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1116279069767442</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01395348837209302</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09302325581395349</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07906976744186046</v>
+        <v>0.0846774193548387</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02790697674418605</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1674418604651163</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="R9">
-        <v>0.1209302325581395</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="S9">
-        <v>0.386046511627907</v>
+        <v>0.3790322580645161</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.116107931316435</v>
+        <v>0.1177777777777778</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02289452166802943</v>
+        <v>0.0237037037037037</v>
       </c>
       <c r="E10">
-        <v>0.001635322976287817</v>
+        <v>0.001481481481481481</v>
       </c>
       <c r="F10">
-        <v>0.07031888798037612</v>
+        <v>0.07629629629629629</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1013900245298446</v>
+        <v>0.09703703703703703</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02780049059689289</v>
+        <v>0.02814814814814815</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2150449713818479</v>
+        <v>0.2207407407407407</v>
       </c>
       <c r="R10">
-        <v>0.1046606704824203</v>
+        <v>0.1007407407407407</v>
       </c>
       <c r="S10">
-        <v>0.3401471790678659</v>
+        <v>0.3340740740740741</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1491525423728814</v>
+        <v>0.1433021806853582</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0711864406779661</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="K11">
-        <v>0.2271186440677966</v>
+        <v>0.2180685358255452</v>
       </c>
       <c r="L11">
-        <v>0.5423728813559322</v>
+        <v>0.5545171339563862</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01016949152542373</v>
+        <v>0.009345794392523364</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7529411764705882</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1941176470588235</v>
+        <v>0.1927083333333333</v>
       </c>
       <c r="K12">
-        <v>0.005882352941176471</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="L12">
-        <v>0.03529411764705882</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01176470588235294</v>
+        <v>0.01041666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7297297297297297</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1891891891891892</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08108108108108109</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02573529411764706</v>
+        <v>0.02356902356902357</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.125</v>
+        <v>0.1279461279461279</v>
       </c>
       <c r="I15">
-        <v>0.04779411764705882</v>
+        <v>0.04713804713804714</v>
       </c>
       <c r="J15">
-        <v>0.3455882352941176</v>
+        <v>0.3501683501683502</v>
       </c>
       <c r="K15">
-        <v>0.08455882352941177</v>
+        <v>0.08417508417508418</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06985294117647059</v>
+        <v>0.06734006734006734</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3014705882352941</v>
+        <v>0.2996632996632997</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01442307692307692</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1682692307692308</v>
+        <v>0.1742738589211618</v>
       </c>
       <c r="I16">
-        <v>0.07211538461538461</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="J16">
-        <v>0.4326923076923077</v>
+        <v>0.4356846473029046</v>
       </c>
       <c r="K16">
-        <v>0.1057692307692308</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01923076923076923</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0673076923076923</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1201923076923077</v>
+        <v>0.1244813278008299</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01995565410199556</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1596452328159645</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="I17">
-        <v>0.130820399113082</v>
+        <v>0.1353965183752418</v>
       </c>
       <c r="J17">
-        <v>0.4212860310421286</v>
+        <v>0.4119922630560928</v>
       </c>
       <c r="K17">
-        <v>0.08869179600886919</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01330376940133038</v>
+        <v>0.01353965183752418</v>
       </c>
       <c r="N17">
-        <v>0.002217294900221729</v>
+        <v>0.001934235976789168</v>
       </c>
       <c r="O17">
-        <v>0.05321507760532151</v>
+        <v>0.05415860735009671</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1108647450110865</v>
+        <v>0.1005802707930367</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02597402597402598</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1645021645021645</v>
+        <v>0.1593625498007968</v>
       </c>
       <c r="I18">
-        <v>0.07792207792207792</v>
+        <v>0.08366533864541832</v>
       </c>
       <c r="J18">
-        <v>0.3982683982683983</v>
+        <v>0.4023904382470119</v>
       </c>
       <c r="K18">
-        <v>0.08658008658008658</v>
+        <v>0.08764940239043825</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02164502164502164</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07792207792207792</v>
+        <v>0.07171314741035857</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1471861471861472</v>
+        <v>0.151394422310757</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02274641954507161</v>
+        <v>0.02142310635042081</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2080876158382477</v>
+        <v>0.2058148431522571</v>
       </c>
       <c r="I19">
-        <v>0.09014321819713564</v>
+        <v>0.09487375669472073</v>
       </c>
       <c r="J19">
-        <v>0.3723673125526538</v>
+        <v>0.3687834736036725</v>
       </c>
       <c r="K19">
-        <v>0.1002527379949452</v>
+        <v>0.09793420045906656</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01853411962931761</v>
+        <v>0.01912777352716144</v>
       </c>
       <c r="N19">
-        <v>0.0008424599831508003</v>
+        <v>0.0007651109410864575</v>
       </c>
       <c r="O19">
-        <v>0.08508845829823083</v>
+        <v>0.0864575363427697</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1019376579612468</v>
+        <v>0.1048201989288447</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Eastern Wash._A.xlsx
+++ b/team_specific_matrix/Eastern Wash._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1504424778761062</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C2">
-        <v>0.6460176991150443</v>
+        <v>0.64</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01769911504424779</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1150442477876106</v>
+        <v>0.12</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07079646017699115</v>
+        <v>0.06857142857142857</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004310344827586207</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="C3">
-        <v>0.03879310344827586</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01724137931034483</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.771551724137931</v>
+        <v>0.7721518987341772</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1681034482758621</v>
+        <v>0.1687763713080169</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6538461538461539</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2692307692307692</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09215017064846416</v>
+        <v>0.09</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01023890784982935</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09215017064846416</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2116040955631399</v>
+        <v>0.22</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0409556313993174</v>
+        <v>0.04</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.174061433447099</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="R6">
-        <v>0.05460750853242321</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="S6">
-        <v>0.3242320819112628</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1095238095238095</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004761904761904762</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0761904761904762</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1761904761904762</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="R7">
-        <v>0.1</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="S7">
-        <v>0.3619047619047619</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.09791666666666667</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02978723404255319</v>
+        <v>0.03125</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07872340425531915</v>
+        <v>0.07708333333333334</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07446808510638298</v>
+        <v>0.075</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03617021276595744</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1872340425531915</v>
+        <v>0.1895833333333333</v>
       </c>
       <c r="R8">
-        <v>0.1127659574468085</v>
+        <v>0.1125</v>
       </c>
       <c r="S8">
-        <v>0.3808510638297872</v>
+        <v>0.38125</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1169354838709677</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02016129032258064</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08870967741935484</v>
+        <v>0.0830188679245283</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0846774193548387</v>
+        <v>0.07924528301886792</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02419354838709677</v>
+        <v>0.02264150943396226</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1774193548387097</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.1088709677419355</v>
+        <v>0.1094339622641509</v>
       </c>
       <c r="S9">
-        <v>0.3790322580645161</v>
+        <v>0.3735849056603773</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1177777777777778</v>
+        <v>0.1181948424068768</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0237037037037037</v>
+        <v>0.02363896848137536</v>
       </c>
       <c r="E10">
-        <v>0.001481481481481481</v>
+        <v>0.001432664756446991</v>
       </c>
       <c r="F10">
-        <v>0.07629629629629629</v>
+        <v>0.07521489971346705</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09703703703703703</v>
+        <v>0.0988538681948424</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02814814814814815</v>
+        <v>0.02722063037249284</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2207407407407407</v>
+        <v>0.2206303724928367</v>
       </c>
       <c r="R10">
-        <v>0.1007407407407407</v>
+        <v>0.1010028653295129</v>
       </c>
       <c r="S10">
-        <v>0.3340740740740741</v>
+        <v>0.333810888252149</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1433021806853582</v>
+        <v>0.1437308868501529</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07476635514018691</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="K11">
-        <v>0.2180685358255452</v>
+        <v>0.2171253822629969</v>
       </c>
       <c r="L11">
-        <v>0.5545171339563862</v>
+        <v>0.5565749235474006</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009345794392523364</v>
+        <v>0.009174311926605505</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7395833333333334</v>
+        <v>0.7448979591836735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1927083333333333</v>
+        <v>0.1887755102040816</v>
       </c>
       <c r="K12">
-        <v>0.005208333333333333</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="L12">
-        <v>0.05208333333333334</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01041666666666667</v>
+        <v>0.01020408163265306</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7560975609756098</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1707317073170732</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07317073170731707</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02356902356902357</v>
+        <v>0.0231023102310231</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1279461279461279</v>
+        <v>0.1254125412541254</v>
       </c>
       <c r="I15">
-        <v>0.04713804713804714</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="J15">
-        <v>0.3501683501683502</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="K15">
-        <v>0.08417508417508418</v>
+        <v>0.08580858085808581</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06734006734006734</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2996632996632997</v>
+        <v>0.2937293729372937</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01244813278008299</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1742738589211618</v>
+        <v>0.1726907630522088</v>
       </c>
       <c r="I16">
-        <v>0.07053941908713693</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="J16">
-        <v>0.4356846473029046</v>
+        <v>0.429718875502008</v>
       </c>
       <c r="K16">
-        <v>0.1037344398340249</v>
+        <v>0.1004016064257028</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02074688796680498</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05809128630705394</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1244813278008299</v>
+        <v>0.1244979919678715</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02127659574468085</v>
+        <v>0.02033271719038817</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1702127659574468</v>
+        <v>0.1645101663585952</v>
       </c>
       <c r="I17">
-        <v>0.1353965183752418</v>
+        <v>0.1386321626617375</v>
       </c>
       <c r="J17">
-        <v>0.4119922630560928</v>
+        <v>0.4121996303142329</v>
       </c>
       <c r="K17">
-        <v>0.09090909090909091</v>
+        <v>0.08872458410351201</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01353965183752418</v>
+        <v>0.01478743068391867</v>
       </c>
       <c r="N17">
-        <v>0.001934235976789168</v>
+        <v>0.001848428835489834</v>
       </c>
       <c r="O17">
-        <v>0.05415860735009671</v>
+        <v>0.05545286506469501</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1005802707930367</v>
+        <v>0.1035120147874307</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02390438247011952</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1593625498007968</v>
+        <v>0.1583011583011583</v>
       </c>
       <c r="I18">
-        <v>0.08366533864541832</v>
+        <v>0.08880308880308881</v>
       </c>
       <c r="J18">
-        <v>0.4023904382470119</v>
+        <v>0.4015444015444015</v>
       </c>
       <c r="K18">
-        <v>0.08764940239043825</v>
+        <v>0.08494208494208494</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0199203187250996</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07171314741035857</v>
+        <v>0.07335907335907337</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.151394422310757</v>
+        <v>0.1467181467181467</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02142310635042081</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2058148431522571</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="I19">
-        <v>0.09487375669472073</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="J19">
-        <v>0.3687834736036725</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="K19">
-        <v>0.09793420045906656</v>
+        <v>0.0974702380952381</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01912777352716144</v>
+        <v>0.0193452380952381</v>
       </c>
       <c r="N19">
-        <v>0.0007651109410864575</v>
+        <v>0.000744047619047619</v>
       </c>
       <c r="O19">
-        <v>0.0864575363427697</v>
+        <v>0.08556547619047619</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1048201989288447</v>
+        <v>0.103422619047619</v>
       </c>
     </row>
   </sheetData>
